--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,478 +64,514 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.929+/-0.001</t>
-  </si>
-  <si>
-    <t>0.895+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.894+/-0.002</t>
-  </si>
-  <si>
-    <t>0.86+/-0.011</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
-  </si>
-  <si>
-    <t>0.944+/-0.008</t>
-  </si>
-  <si>
-    <t>0.845</t>
-  </si>
-  <si>
-    <t>11.087+/-0.954</t>
-  </si>
-  <si>
-    <t>0.873+/-0.003</t>
-  </si>
-  <si>
-    <t>0.866+/-0.0</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.855+/-0.002</t>
-  </si>
-  <si>
-    <t>0.848+/-0.011</t>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.935+/-0.001</t>
+  </si>
+  <si>
+    <t>0.9+/-0.0</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.907+/-0.002</t>
+  </si>
+  <si>
+    <t>0.871+/-0.011</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.969+/-0.001</t>
+  </si>
+  <si>
+    <t>0.941+/-0.008</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>8.42+/-0.024</t>
+  </si>
+  <si>
+    <t>0.873+/-0.002</t>
+  </si>
+  <si>
+    <t>0.865+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.861+/-0.002</t>
+  </si>
+  <si>
+    <t>0.852+/-0.011</t>
+  </si>
+  <si>
+    <t>0.585</t>
+  </si>
+  <si>
+    <t>0.889+/-0.003</t>
+  </si>
+  <si>
+    <t>0.884+/-0.011</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>1.556+/-0.026</t>
+  </si>
+  <si>
+    <t>0.922+/-0.002</t>
+  </si>
+  <si>
+    <t>0.898+/-0.0</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.913+/-0.003</t>
+  </si>
+  <si>
+    <t>0.891+/-0.009</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.932+/-0.002</t>
+  </si>
+  <si>
+    <t>0.906+/-0.007</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>6.477+/-0.061</t>
+  </si>
+  <si>
+    <t>0.866+/-0.002</t>
+  </si>
+  <si>
+    <t>0.855+/-0.0</t>
+  </si>
+  <si>
+    <t>0.819</t>
+  </si>
+  <si>
+    <t>0.838+/-0.003</t>
+  </si>
+  <si>
+    <t>0.828+/-0.015</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.908+/-0.004</t>
+  </si>
+  <si>
+    <t>0.896+/-0.007</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.629+/-0.015</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.941+/-0.0</t>
+  </si>
+  <si>
+    <t>0.91+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.91+/-0.001</t>
+  </si>
+  <si>
+    <t>0.876+/-0.008</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.978+/-0.001</t>
+  </si>
+  <si>
+    <t>0.954+/-0.008</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>9.758+/-0.082</t>
+  </si>
+  <si>
+    <t>0.868+/-0.002</t>
+  </si>
+  <si>
+    <t>0.861+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.852+/-0.002</t>
+  </si>
+  <si>
+    <t>0.846+/-0.009</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.891+/-0.003</t>
+  </si>
+  <si>
+    <t>0.884+/-0.013</t>
+  </si>
+  <si>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>1.566+/-0.04</t>
+  </si>
+  <si>
+    <t>0.926+/-0.001</t>
+  </si>
+  <si>
+    <t>0.908+/-0.0</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>0.892+/-0.01</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.945+/-0.002</t>
+  </si>
+  <si>
+    <t>0.927+/-0.009</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>6.508+/-0.112</t>
+  </si>
+  <si>
+    <t>0.877+/-0.001</t>
+  </si>
+  <si>
+    <t>0.87+/-0.0</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.837+/-0.002</t>
+  </si>
+  <si>
+    <t>0.829+/-0.013</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.937+/-0.003</t>
+  </si>
+  <si>
+    <t>0.932+/-0.01</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.67+/-0.024</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.846+/-0.003</t>
+  </si>
+  <si>
+    <t>0.773+/-0.0</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.875+/-0.004</t>
+  </si>
+  <si>
+    <t>0.804+/-0.019</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.806+/-0.003</t>
+  </si>
+  <si>
+    <t>0.724+/-0.012</t>
   </si>
   <si>
     <t>0.575</t>
   </si>
   <si>
-    <t>0.899+/-0.004</t>
-  </si>
-  <si>
-    <t>0.893+/-0.011</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>1.958+/-0.199</t>
-  </si>
-  <si>
-    <t>0.923+/-0.001</t>
-  </si>
-  <si>
-    <t>0.9+/-0.0</t>
-  </si>
-  <si>
-    <t>0.868</t>
-  </si>
-  <si>
-    <t>0.913+/-0.001</t>
-  </si>
-  <si>
-    <t>0.89+/-0.012</t>
-  </si>
-  <si>
-    <t>0.653</t>
-  </si>
-  <si>
-    <t>0.936+/-0.002</t>
-  </si>
-  <si>
-    <t>0.912+/-0.013</t>
+    <t>8.078+/-0.04</t>
+  </si>
+  <si>
+    <t>0.756+/-0.002</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.773+/-0.003</t>
+  </si>
+  <si>
+    <t>0.761+/-0.018</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.724+/-0.005</t>
+  </si>
+  <si>
+    <t>0.711+/-0.011</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>1.368+/-0.028</t>
+  </si>
+  <si>
+    <t>0.84+/-0.002</t>
+  </si>
+  <si>
+    <t>0.809+/-0.0</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.867+/-0.004</t>
+  </si>
+  <si>
+    <t>0.833+/-0.017</t>
+  </si>
+  <si>
+    <t>0.803+/-0.003</t>
+  </si>
+  <si>
+    <t>0.773+/-0.011</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>5.72+/-0.048</t>
+  </si>
+  <si>
+    <t>0.73+/-0.003</t>
+  </si>
+  <si>
+    <t>0.699+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.744+/-0.005</t>
+  </si>
+  <si>
+    <t>0.71+/-0.016</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>0.7+/-0.006</t>
+  </si>
+  <si>
+    <t>0.673+/-0.018</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.587+/-0.008</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.836+/-0.002</t>
+  </si>
+  <si>
+    <t>0.753+/-0.0</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.871+/-0.003</t>
+  </si>
+  <si>
+    <t>0.791+/-0.013</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.788+/-0.004</t>
+  </si>
+  <si>
+    <t>0.689+/-0.021</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>7.675+/-0.029</t>
+  </si>
+  <si>
+    <t>0.736+/-0.002</t>
+  </si>
+  <si>
+    <t>0.721+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.758+/-0.004</t>
+  </si>
+  <si>
+    <t>0.742+/-0.014</t>
+  </si>
+  <si>
+    <t>0.514</t>
+  </si>
+  <si>
+    <t>0.694+/-0.005</t>
+  </si>
+  <si>
+    <t>0.68+/-0.021</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>1.392+/-0.021</t>
+  </si>
+  <si>
+    <t>0.82+/-0.002</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
   </si>
   <si>
     <t>0.733</t>
   </si>
   <si>
-    <t>8.745+/-0.637</t>
-  </si>
-  <si>
-    <t>0.862+/-0.003</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.834+/-0.005</t>
-  </si>
-  <si>
-    <t>0.823+/-0.011</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.905+/-0.005</t>
-  </si>
-  <si>
-    <t>0.896+/-0.015</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.756+/-0.023</t>
-  </si>
-  <si>
-    <t>0.938+/-0.001</t>
-  </si>
-  <si>
-    <t>0.908+/-0.0</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.908+/-0.001</t>
-  </si>
-  <si>
-    <t>0.874+/-0.009</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.976+/-0.001</t>
-  </si>
-  <si>
-    <t>0.953+/-0.007</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>11.793+/-0.463</t>
-  </si>
-  <si>
-    <t>0.873+/-0.002</t>
-  </si>
-  <si>
-    <t>0.869+/-0.0</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.854+/-0.002</t>
-  </si>
-  <si>
-    <t>0.85+/-0.008</t>
+    <t>0.852+/-0.005</t>
+  </si>
+  <si>
+    <t>0.807+/-0.011</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.774+/-0.003</t>
+  </si>
+  <si>
+    <t>0.737+/-0.019</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>5.836+/-0.038</t>
+  </si>
+  <si>
+    <t>0.721+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.0</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.733+/-0.005</t>
+  </si>
+  <si>
+    <t>0.691+/-0.013</t>
   </si>
   <si>
     <t>0.488</t>
   </si>
   <si>
-    <t>0.9+/-0.004</t>
-  </si>
-  <si>
-    <t>0.897+/-0.013</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>1.813+/-0.1</t>
-  </si>
-  <si>
-    <t>0.925+/-0.001</t>
-  </si>
-  <si>
-    <t>0.907+/-0.0</t>
-  </si>
-  <si>
-    <t>0.873</t>
-  </si>
-  <si>
-    <t>0.91+/-0.001</t>
-  </si>
-  <si>
-    <t>0.891+/-0.01</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.943+/-0.002</t>
-  </si>
-  <si>
-    <t>0.927+/-0.014</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>8.116+/-0.658</t>
-  </si>
-  <si>
-    <t>0.879+/-0.001</t>
-  </si>
-  <si>
-    <t>0.87+/-0.0</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.843+/-0.002</t>
-  </si>
-  <si>
-    <t>0.834+/-0.012</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.932+/-0.003</t>
-  </si>
-  <si>
-    <t>0.924+/-0.01</t>
-  </si>
-  <si>
-    <t>0.842</t>
-  </si>
-  <si>
-    <t>0.83+/-0.015</t>
-  </si>
-  <si>
-    <t>0.848+/-0.003</t>
-  </si>
-  <si>
-    <t>0.774+/-0.0</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.874+/-0.003</t>
-  </si>
-  <si>
-    <t>0.804+/-0.018</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.814+/-0.004</t>
-  </si>
-  <si>
-    <t>0.727+/-0.015</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>9.865+/-0.335</t>
-  </si>
-  <si>
-    <t>0.757+/-0.003</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.778+/-0.003</t>
-  </si>
-  <si>
-    <t>0.765+/-0.021</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.721+/-0.004</t>
-  </si>
-  <si>
-    <t>0.708+/-0.012</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>1.637+/-0.037</t>
-  </si>
-  <si>
-    <t>0.844+/-0.001</t>
-  </si>
-  <si>
-    <t>0.812+/-0.0</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
-    <t>0.868+/-0.003</t>
-  </si>
-  <si>
-    <t>0.836+/-0.02</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.81+/-0.002</t>
-  </si>
-  <si>
-    <t>0.777+/-0.015</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>6.527+/-0.14</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.741+/-0.004</t>
-  </si>
-  <si>
-    <t>0.71+/-0.018</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.723+/-0.004</t>
-  </si>
-  <si>
-    <t>0.697+/-0.012</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.657+/-0.024</t>
-  </si>
-  <si>
-    <t>0.83+/-0.003</t>
-  </si>
-  <si>
-    <t>0.752+/-0.0</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.869+/-0.002</t>
-  </si>
-  <si>
-    <t>0.793+/-0.01</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.776+/-0.006</t>
-  </si>
-  <si>
-    <t>0.683+/-0.015</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>9.073+/-0.293</t>
-  </si>
-  <si>
-    <t>0.732+/-0.002</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.753+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.016</t>
-  </si>
-  <si>
-    <t>0.69+/-0.005</t>
-  </si>
-  <si>
-    <t>0.677+/-0.012</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>1.499+/-0.076</t>
-  </si>
-  <si>
-    <t>0.819+/-0.002</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.853+/-0.003</t>
-  </si>
-  <si>
-    <t>0.812+/-0.014</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.772+/-0.003</t>
-  </si>
-  <si>
-    <t>0.736+/-0.014</t>
-  </si>
-  <si>
-    <t>6.227+/-0.278</t>
-  </si>
-  <si>
-    <t>0.717+/-0.004</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.743+/-0.006</t>
-  </si>
-  <si>
-    <t>0.705+/-0.013</t>
-  </si>
-  <si>
-    <t>0.508</t>
-  </si>
-  <si>
-    <t>0.662+/-0.006</t>
-  </si>
-  <si>
-    <t>0.626+/-0.018</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.677+/-0.025</t>
+    <t>0.696+/-0.008</t>
+  </si>
+  <si>
+    <t>0.659+/-0.019</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.58+/-0.017</t>
   </si>
 </sst>
 </file>
@@ -924,16 +960,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -941,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -961,19 +997,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -981,19 +1017,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1001,19 +1037,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1021,19 +1057,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1041,19 +1077,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1061,19 +1097,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1081,19 +1117,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1101,19 +1137,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1151,19 +1187,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1171,19 +1207,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1191,19 +1227,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1211,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1231,19 +1267,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1251,19 +1287,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1271,19 +1307,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1291,19 +1327,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1311,19 +1347,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1331,19 +1367,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1381,19 +1417,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1401,19 +1437,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1421,19 +1457,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1441,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1461,19 +1497,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1481,19 +1517,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1501,19 +1537,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1521,19 +1557,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1541,19 +1577,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1561,19 +1597,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1611,19 +1647,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1631,19 +1667,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
+        <v>166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1651,19 +1687,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
         <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1671,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1691,19 +1727,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1711,19 +1747,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1731,19 +1767,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1751,19 +1787,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1771,19 +1807,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1791,19 +1827,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -82,244 +82,244 @@
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.935+/-0.001</t>
-  </si>
-  <si>
-    <t>0.9+/-0.0</t>
-  </si>
-  <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.907+/-0.002</t>
-  </si>
-  <si>
-    <t>0.871+/-0.011</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.969+/-0.001</t>
-  </si>
-  <si>
-    <t>0.941+/-0.008</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>8.42+/-0.024</t>
-  </si>
-  <si>
-    <t>0.873+/-0.002</t>
+    <t>0.929+/-0.001</t>
+  </si>
+  <si>
+    <t>0.896+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.893+/-0.002</t>
+  </si>
+  <si>
+    <t>0.859+/-0.012</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.974+/-0.001</t>
+  </si>
+  <si>
+    <t>0.947+/-0.007</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>8.281+/-0.026</t>
+  </si>
+  <si>
+    <t>0.874+/-0.002</t>
+  </si>
+  <si>
+    <t>0.866+/-0.0</t>
+  </si>
+  <si>
+    <t>0.837</t>
+  </si>
+  <si>
+    <t>0.854+/-0.003</t>
+  </si>
+  <si>
+    <t>0.847+/-0.01</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.901+/-0.002</t>
+  </si>
+  <si>
+    <t>0.894+/-0.014</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>1.573+/-0.007</t>
+  </si>
+  <si>
+    <t>0.923+/-0.001</t>
+  </si>
+  <si>
+    <t>0.901+/-0.0</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>0.91+/-0.002</t>
+  </si>
+  <si>
+    <t>0.889+/-0.012</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.939+/-0.001</t>
+  </si>
+  <si>
+    <t>0.918+/-0.008</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>6.64+/-0.009</t>
+  </si>
+  <si>
+    <t>0.865+/-0.001</t>
+  </si>
+  <si>
+    <t>0.855+/-0.0</t>
+  </si>
+  <si>
+    <t>0.814</t>
+  </si>
+  <si>
+    <t>0.83+/-0.003</t>
+  </si>
+  <si>
+    <t>0.821+/-0.015</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.919+/-0.004</t>
+  </si>
+  <si>
+    <t>0.909+/-0.007</t>
+  </si>
+  <si>
+    <t>0.611+/-0.008</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.941+/-0.001</t>
+  </si>
+  <si>
+    <t>0.91+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.911+/-0.001</t>
+  </si>
+  <si>
+    <t>0.877+/-0.009</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.978+/-0.001</t>
+  </si>
+  <si>
+    <t>0.954+/-0.008</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>9.401+/-0.031</t>
+  </si>
+  <si>
+    <t>0.873+/-0.001</t>
   </si>
   <si>
     <t>0.865+/-0.0</t>
   </si>
   <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.852+/-0.011</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.889+/-0.003</t>
-  </si>
-  <si>
-    <t>0.884+/-0.011</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>1.556+/-0.026</t>
-  </si>
-  <si>
-    <t>0.922+/-0.002</t>
-  </si>
-  <si>
-    <t>0.898+/-0.0</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.913+/-0.003</t>
-  </si>
-  <si>
-    <t>0.891+/-0.009</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.932+/-0.002</t>
-  </si>
-  <si>
-    <t>0.906+/-0.007</t>
-  </si>
-  <si>
-    <t>0.741</t>
-  </si>
-  <si>
-    <t>6.477+/-0.061</t>
-  </si>
-  <si>
-    <t>0.866+/-0.002</t>
-  </si>
-  <si>
-    <t>0.855+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.838+/-0.003</t>
-  </si>
-  <si>
-    <t>0.828+/-0.015</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.908+/-0.004</t>
-  </si>
-  <si>
-    <t>0.896+/-0.007</t>
-  </si>
-  <si>
-    <t>0.835</t>
-  </si>
-  <si>
-    <t>0.629+/-0.015</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.941+/-0.0</t>
-  </si>
-  <si>
-    <t>0.91+/-0.0</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.91+/-0.001</t>
-  </si>
-  <si>
-    <t>0.876+/-0.008</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.978+/-0.001</t>
-  </si>
-  <si>
-    <t>0.954+/-0.008</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>9.758+/-0.082</t>
-  </si>
-  <si>
-    <t>0.868+/-0.002</t>
-  </si>
-  <si>
-    <t>0.861+/-0.0</t>
-  </si>
-  <si>
     <t>0.838</t>
   </si>
   <si>
-    <t>0.852+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.009</t>
+    <t>0.855+/-0.003</t>
+  </si>
+  <si>
+    <t>0.848+/-0.01</t>
   </si>
   <si>
     <t>0.476</t>
   </si>
   <si>
-    <t>0.891+/-0.003</t>
-  </si>
-  <si>
-    <t>0.884+/-0.013</t>
-  </si>
-  <si>
-    <t>0.789</t>
-  </si>
-  <si>
-    <t>1.566+/-0.04</t>
-  </si>
-  <si>
-    <t>0.926+/-0.001</t>
-  </si>
-  <si>
-    <t>0.908+/-0.0</t>
-  </si>
-  <si>
-    <t>0.869</t>
-  </si>
-  <si>
-    <t>0.892+/-0.01</t>
-  </si>
-  <si>
-    <t>0.549</t>
+    <t>0.899+/-0.001</t>
+  </si>
+  <si>
+    <t>0.89+/-0.012</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>1.488+/-0.009</t>
+  </si>
+  <si>
+    <t>0.927+/-0.001</t>
+  </si>
+  <si>
+    <t>0.909+/-0.0</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>0.913+/-0.001</t>
+  </si>
+  <si>
+    <t>0.895+/-0.009</t>
+  </si>
+  <si>
+    <t>0.567</t>
   </si>
   <si>
     <t>0.945+/-0.002</t>
   </si>
   <si>
-    <t>0.927+/-0.009</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>6.508+/-0.112</t>
-  </si>
-  <si>
-    <t>0.877+/-0.001</t>
-  </si>
-  <si>
-    <t>0.87+/-0.0</t>
-  </si>
-  <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.837+/-0.002</t>
-  </si>
-  <si>
-    <t>0.829+/-0.013</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.937+/-0.003</t>
-  </si>
-  <si>
-    <t>0.932+/-0.01</t>
+    <t>0.927+/-0.011</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>6.202+/-0.014</t>
+  </si>
+  <si>
+    <t>0.879+/-0.002</t>
+  </si>
+  <si>
+    <t>0.869+/-0.0</t>
+  </si>
+  <si>
+    <t>0.822</t>
+  </si>
+  <si>
+    <t>0.841+/-0.003</t>
+  </si>
+  <si>
+    <t>0.833+/-0.011</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.933+/-0.006</t>
+  </si>
+  <si>
+    <t>0.925+/-0.01</t>
   </si>
   <si>
     <t>0.849</t>
   </si>
   <si>
-    <t>0.67+/-0.024</t>
+    <t>0.644+/-0.004</t>
   </si>
   <si>
     <t>0.723</t>
@@ -331,118 +331,124 @@
     <t>0.3+/-0.458</t>
   </si>
   <si>
-    <t>0.846+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.748</t>
-  </si>
-  <si>
-    <t>0.875+/-0.004</t>
-  </si>
-  <si>
-    <t>0.804+/-0.019</t>
-  </si>
-  <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.806+/-0.003</t>
-  </si>
-  <si>
-    <t>0.724+/-0.012</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>8.078+/-0.04</t>
-  </si>
-  <si>
-    <t>0.756+/-0.002</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.773+/-0.003</t>
-  </si>
-  <si>
-    <t>0.761+/-0.018</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.724+/-0.005</t>
-  </si>
-  <si>
-    <t>0.711+/-0.011</t>
+    <t>0.85+/-0.003</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>0.877+/-0.003</t>
+  </si>
+  <si>
+    <t>0.809+/-0.02</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.813+/-0.003</t>
+  </si>
+  <si>
+    <t>0.726+/-0.012</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>7.843+/-0.03</t>
+  </si>
+  <si>
+    <t>0.759+/-0.002</t>
+  </si>
+  <si>
+    <t>0.748+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.775+/-0.003</t>
+  </si>
+  <si>
+    <t>0.766+/-0.021</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.729+/-0.005</t>
+  </si>
+  <si>
+    <t>0.716+/-0.018</t>
   </si>
   <si>
     <t>0.616</t>
   </si>
   <si>
-    <t>1.368+/-0.028</t>
-  </si>
-  <si>
-    <t>0.84+/-0.002</t>
+    <t>1.329+/-0.012</t>
+  </si>
+  <si>
+    <t>0.839+/-0.002</t>
   </si>
   <si>
     <t>0.809+/-0.0</t>
   </si>
   <si>
-    <t>0.768</t>
-  </si>
-  <si>
-    <t>0.867+/-0.004</t>
-  </si>
-  <si>
-    <t>0.833+/-0.017</t>
-  </si>
-  <si>
-    <t>0.803+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.011</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>5.72+/-0.048</t>
-  </si>
-  <si>
-    <t>0.73+/-0.003</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.744+/-0.005</t>
-  </si>
-  <si>
-    <t>0.71+/-0.016</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.7+/-0.006</t>
-  </si>
-  <si>
-    <t>0.673+/-0.018</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.587+/-0.008</t>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.865+/-0.004</t>
+  </si>
+  <si>
+    <t>0.832+/-0.016</t>
+  </si>
+  <si>
+    <t>0.582</t>
+  </si>
+  <si>
+    <t>0.804+/-0.002</t>
+  </si>
+  <si>
+    <t>0.774+/-0.016</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>5.514+/-0.013</t>
+  </si>
+  <si>
+    <t>0.732+/-0.002</t>
+  </si>
+  <si>
+    <t>0.704+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.743+/-0.002</t>
+  </si>
+  <si>
+    <t>0.713+/-0.016</t>
+  </si>
+  <si>
+    <t>0.474</t>
+  </si>
+  <si>
+    <t>0.71+/-0.006</t>
+  </si>
+  <si>
+    <t>0.682+/-0.014</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.571+/-0.006</t>
   </si>
   <si>
     <t>0.692</t>
@@ -454,124 +460,121 @@
     <t>0.5+/-0.5</t>
   </si>
   <si>
-    <t>0.836+/-0.002</t>
-  </si>
-  <si>
-    <t>0.753+/-0.0</t>
-  </si>
-  <si>
-    <t>0.735</t>
+    <t>0.834+/-0.002</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
   </si>
   <si>
     <t>0.871+/-0.003</t>
   </si>
   <si>
-    <t>0.791+/-0.013</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.788+/-0.004</t>
-  </si>
-  <si>
-    <t>0.689+/-0.021</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>7.675+/-0.029</t>
-  </si>
-  <si>
-    <t>0.736+/-0.002</t>
-  </si>
-  <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.758+/-0.004</t>
-  </si>
-  <si>
-    <t>0.742+/-0.014</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>0.694+/-0.005</t>
-  </si>
-  <si>
-    <t>0.68+/-0.021</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>1.392+/-0.021</t>
-  </si>
-  <si>
-    <t>0.82+/-0.002</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>0.852+/-0.005</t>
-  </si>
-  <si>
-    <t>0.807+/-0.011</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.774+/-0.003</t>
-  </si>
-  <si>
-    <t>0.737+/-0.019</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>5.836+/-0.038</t>
-  </si>
-  <si>
-    <t>0.721+/-0.003</t>
-  </si>
-  <si>
-    <t>0.682+/-0.0</t>
+    <t>0.79+/-0.016</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.783+/-0.003</t>
+  </si>
+  <si>
+    <t>0.693+/-0.019</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>7.511+/-0.127</t>
+  </si>
+  <si>
+    <t>0.74+/-0.003</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.764+/-0.005</t>
+  </si>
+  <si>
+    <t>0.753+/-0.017</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.696+/-0.005</t>
+  </si>
+  <si>
+    <t>0.689+/-0.024</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>1.351+/-0.009</t>
+  </si>
+  <si>
+    <t>0.822+/-0.001</t>
+  </si>
+  <si>
+    <t>0.786+/-0.0</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.857+/-0.002</t>
+  </si>
+  <si>
+    <t>0.816+/-0.014</t>
+  </si>
+  <si>
+    <t>0.774+/-0.004</t>
+  </si>
+  <si>
+    <t>0.74+/-0.017</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>5.671+/-0.024</t>
+  </si>
+  <si>
+    <t>0.719+/-0.002</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
   </si>
   <si>
     <t>0.683</t>
   </si>
   <si>
-    <t>0.733+/-0.005</t>
-  </si>
-  <si>
-    <t>0.691+/-0.013</t>
+    <t>0.737+/-0.004</t>
+  </si>
+  <si>
+    <t>0.698+/-0.017</t>
   </si>
   <si>
     <t>0.488</t>
   </si>
   <si>
-    <t>0.696+/-0.008</t>
-  </si>
-  <si>
-    <t>0.659+/-0.019</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.58+/-0.017</t>
+    <t>0.679+/-0.008</t>
+  </si>
+  <si>
+    <t>0.647+/-0.025</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.551+/-0.003</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1149,7 +1152,7 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1190,13 +1193,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>91</v>
@@ -1210,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -1227,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>93</v>
@@ -1250,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -1270,10 +1273,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
@@ -1290,10 +1293,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>86</v>
@@ -1310,10 +1313,10 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
@@ -1330,10 +1333,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
@@ -1350,10 +1353,10 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>89</v>
@@ -1370,10 +1373,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>90</v>
@@ -1426,10 +1429,10 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1446,10 +1449,10 @@
         <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1463,13 +1466,13 @@
         <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1483,13 +1486,13 @@
         <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1503,13 +1506,13 @@
         <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1523,13 +1526,13 @@
         <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1543,13 +1546,13 @@
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1563,13 +1566,13 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1583,13 +1586,13 @@
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1603,13 +1606,13 @@
         <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1650,16 +1653,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,16 +1673,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1687,19 +1690,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1707,19 +1710,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1727,19 +1730,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,16 +1753,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1767,19 +1770,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1787,19 +1790,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,16 +1813,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,16 +1833,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="230">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,520 +61,652 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.929+/-0.001</t>
-  </si>
-  <si>
-    <t>0.896+/-0.0</t>
-  </si>
-  <si>
-    <t>0.852</t>
-  </si>
-  <si>
-    <t>0.893+/-0.002</t>
-  </si>
-  <si>
-    <t>0.859+/-0.012</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
-  </si>
-  <si>
-    <t>0.947+/-0.007</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>8.281+/-0.026</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.933+/-0.003</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>0.899+/-0.005</t>
+  </si>
+  <si>
+    <t>0.591+/-0.021</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.975+/-0.002</t>
+  </si>
+  <si>
+    <t>0.85+/-0.032</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>0.989+/-0.001</t>
+  </si>
+  <si>
+    <t>0.924+/-0.009</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>14.32+/-0.211</t>
   </si>
   <si>
     <t>0.874+/-0.002</t>
   </si>
   <si>
-    <t>0.866+/-0.0</t>
-  </si>
-  <si>
-    <t>0.837</t>
-  </si>
-  <si>
-    <t>0.854+/-0.003</t>
-  </si>
-  <si>
-    <t>0.847+/-0.01</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.901+/-0.002</t>
-  </si>
-  <si>
-    <t>0.894+/-0.014</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>1.573+/-0.007</t>
-  </si>
-  <si>
-    <t>0.923+/-0.001</t>
-  </si>
-  <si>
-    <t>0.901+/-0.0</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>0.91+/-0.002</t>
-  </si>
-  <si>
-    <t>0.889+/-0.012</t>
-  </si>
-  <si>
-    <t>0.631</t>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.874</t>
+  </si>
+  <si>
+    <t>0.858+/-0.003</t>
+  </si>
+  <si>
+    <t>0.568+/-0.017</t>
+  </si>
+  <si>
+    <t>0.755</t>
+  </si>
+  <si>
+    <t>0.897+/-0.003</t>
+  </si>
+  <si>
+    <t>0.81+/-0.033</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.951+/-0.001</t>
+  </si>
+  <si>
+    <t>0.911+/-0.013</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>2.703+/-0.082</t>
+  </si>
+  <si>
+    <t>0.925+/-0.002</t>
+  </si>
+  <si>
+    <t>0.867+/-0.0</t>
+  </si>
+  <si>
+    <t>0.885</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
+  </si>
+  <si>
+    <t>0.642+/-0.029</t>
+  </si>
+  <si>
+    <t>0.787</t>
+  </si>
+  <si>
+    <t>0.937+/-0.002</t>
+  </si>
+  <si>
+    <t>0.774+/-0.031</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.979+/-0.001</t>
+  </si>
+  <si>
+    <t>0.924+/-0.012</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>10.938+/-0.155</t>
+  </si>
+  <si>
+    <t>0.865+/-0.002</t>
+  </si>
+  <si>
+    <t>0.814+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.834+/-0.003</t>
+  </si>
+  <si>
+    <t>0.524+/-0.02</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.911+/-0.007</t>
+  </si>
+  <si>
+    <t>0.84+/-0.038</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.938+/-0.002</t>
+  </si>
+  <si>
+    <t>0.901+/-0.009</t>
+  </si>
+  <si>
+    <t>1.242+/-0.034</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.941+/-0.001</t>
+  </si>
+  <si>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.909+/-0.002</t>
+  </si>
+  <si>
+    <t>0.518+/-0.016</t>
+  </si>
+  <si>
+    <t>0.741</t>
+  </si>
+  <si>
+    <t>0.979+/-0.002</t>
+  </si>
+  <si>
+    <t>0.824+/-0.029</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.99+/-0.001</t>
+  </si>
+  <si>
+    <t>0.923+/-0.01</t>
+  </si>
+  <si>
+    <t>0.922</t>
+  </si>
+  <si>
+    <t>15.971+/-0.136</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>0.855+/-0.003</t>
+  </si>
+  <si>
+    <t>0.476+/-0.024</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.9+/-0.005</t>
+  </si>
+  <si>
+    <t>0.799+/-0.034</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.907+/-0.01</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>2.554+/-0.062</t>
+  </si>
+  <si>
+    <t>0.927+/-0.002</t>
+  </si>
+  <si>
+    <t>0.871+/-0.0</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.911+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.032</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.946+/-0.003</t>
+  </si>
+  <si>
+    <t>0.761+/-0.045</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.919+/-0.011</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>10.177+/-0.107</t>
+  </si>
+  <si>
+    <t>0.881+/-0.001</t>
+  </si>
+  <si>
+    <t>0.82+/-0.0</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.841+/-0.003</t>
+  </si>
+  <si>
+    <t>0.447+/-0.018</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.938+/-0.006</t>
+  </si>
+  <si>
+    <t>0.856+/-0.018</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.949+/-0.001</t>
+  </si>
+  <si>
+    <t>0.912+/-0.011</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>1.279+/-0.028</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.849+/-0.005</t>
+  </si>
+  <si>
+    <t>0.759+/-0.0</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.876+/-0.004</t>
+  </si>
+  <si>
+    <t>0.564+/-0.036</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.812+/-0.01</t>
+  </si>
+  <si>
+    <t>0.578+/-0.033</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.946+/-0.002</t>
+  </si>
+  <si>
+    <t>0.766+/-0.019</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>13.562+/-0.104</t>
+  </si>
+  <si>
+    <t>0.757+/-0.003</t>
+  </si>
+  <si>
+    <t>0.729+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.772+/-0.006</t>
+  </si>
+  <si>
+    <t>0.51+/-0.025</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.728+/-0.006</t>
+  </si>
+  <si>
+    <t>0.617+/-0.025</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.835+/-0.001</t>
+  </si>
+  <si>
+    <t>0.76+/-0.017</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>2.176+/-0.036</t>
+  </si>
+  <si>
+    <t>0.84+/-0.003</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.866+/-0.003</t>
+  </si>
+  <si>
+    <t>0.578+/-0.035</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.804+/-0.004</t>
+  </si>
+  <si>
+    <t>0.557+/-0.023</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.921+/-0.002</t>
+  </si>
+  <si>
+    <t>0.782+/-0.02</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>8.602+/-0.085</t>
+  </si>
+  <si>
+    <t>0.736+/-0.004</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.746+/-0.006</t>
+  </si>
+  <si>
+    <t>0.47+/-0.024</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.716+/-0.009</t>
+  </si>
+  <si>
+    <t>0.64+/-0.031</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.815+/-0.004</t>
+  </si>
+  <si>
+    <t>0.736+/-0.024</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.155+/-0.043</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.002</t>
+  </si>
+  <si>
+    <t>0.838+/-0.003</t>
+  </si>
+  <si>
+    <t>0.733+/-0.0</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.571+/-0.021</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.79+/-0.007</t>
+  </si>
+  <si>
+    <t>0.544+/-0.023</t>
+  </si>
+  <si>
+    <t>0.365</t>
   </si>
   <si>
     <t>0.939+/-0.001</t>
   </si>
   <si>
-    <t>0.918+/-0.008</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>6.64+/-0.009</t>
-  </si>
-  <si>
-    <t>0.865+/-0.001</t>
-  </si>
-  <si>
-    <t>0.855+/-0.0</t>
-  </si>
-  <si>
-    <t>0.814</t>
-  </si>
-  <si>
-    <t>0.83+/-0.003</t>
-  </si>
-  <si>
-    <t>0.821+/-0.015</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.919+/-0.004</t>
-  </si>
-  <si>
-    <t>0.909+/-0.007</t>
-  </si>
-  <si>
-    <t>0.611+/-0.008</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.941+/-0.001</t>
-  </si>
-  <si>
-    <t>0.91+/-0.0</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.911+/-0.001</t>
-  </si>
-  <si>
-    <t>0.877+/-0.009</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.978+/-0.001</t>
-  </si>
-  <si>
-    <t>0.954+/-0.008</t>
-  </si>
-  <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>9.401+/-0.031</t>
-  </si>
-  <si>
-    <t>0.873+/-0.001</t>
-  </si>
-  <si>
-    <t>0.865+/-0.0</t>
-  </si>
-  <si>
-    <t>0.838</t>
-  </si>
-  <si>
-    <t>0.855+/-0.003</t>
-  </si>
-  <si>
-    <t>0.848+/-0.01</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.899+/-0.001</t>
-  </si>
-  <si>
-    <t>0.89+/-0.012</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>1.488+/-0.009</t>
-  </si>
-  <si>
-    <t>0.927+/-0.001</t>
-  </si>
-  <si>
-    <t>0.909+/-0.0</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>0.913+/-0.001</t>
-  </si>
-  <si>
-    <t>0.895+/-0.009</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.945+/-0.002</t>
-  </si>
-  <si>
-    <t>0.927+/-0.011</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>6.202+/-0.014</t>
-  </si>
-  <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.869+/-0.0</t>
-  </si>
-  <si>
-    <t>0.822</t>
-  </si>
-  <si>
-    <t>0.841+/-0.003</t>
-  </si>
-  <si>
-    <t>0.833+/-0.011</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.933+/-0.006</t>
-  </si>
-  <si>
-    <t>0.925+/-0.01</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.644+/-0.004</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.85+/-0.003</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
+    <t>0.734+/-0.014</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>12.675+/-0.158</t>
+  </si>
+  <si>
+    <t>0.735+/-0.004</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
   </si>
   <si>
     <t>0.758</t>
   </si>
   <si>
-    <t>0.877+/-0.003</t>
-  </si>
-  <si>
-    <t>0.809+/-0.02</t>
-  </si>
-  <si>
-    <t>0.561</t>
-  </si>
-  <si>
-    <t>0.813+/-0.003</t>
-  </si>
-  <si>
-    <t>0.726+/-0.012</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>7.843+/-0.03</t>
-  </si>
-  <si>
-    <t>0.759+/-0.002</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.775+/-0.003</t>
-  </si>
-  <si>
-    <t>0.766+/-0.021</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>0.729+/-0.005</t>
-  </si>
-  <si>
-    <t>0.716+/-0.018</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>1.329+/-0.012</t>
-  </si>
-  <si>
-    <t>0.839+/-0.002</t>
-  </si>
-  <si>
-    <t>0.809+/-0.0</t>
+    <t>0.757+/-0.005</t>
+  </si>
+  <si>
+    <t>0.523+/-0.016</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.693+/-0.008</t>
+  </si>
+  <si>
+    <t>0.572+/-0.022</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.812+/-0.002</t>
+  </si>
+  <si>
+    <t>0.732+/-0.016</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>2.287+/-0.025</t>
+  </si>
+  <si>
+    <t>0.821+/-0.003</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.852+/-0.003</t>
+  </si>
+  <si>
+    <t>0.587+/-0.018</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.778+/-0.007</t>
+  </si>
+  <si>
+    <t>0.54+/-0.02</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.904+/-0.002</t>
+  </si>
+  <si>
+    <t>0.753+/-0.015</t>
   </si>
   <si>
     <t>0.767</t>
   </si>
   <si>
-    <t>0.865+/-0.004</t>
-  </si>
-  <si>
-    <t>0.832+/-0.016</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.804+/-0.002</t>
-  </si>
-  <si>
-    <t>0.774+/-0.016</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>5.514+/-0.013</t>
-  </si>
-  <si>
-    <t>0.732+/-0.002</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
+    <t>9.202+/-0.172</t>
+  </si>
+  <si>
+    <t>0.719+/-0.005</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.736+/-0.005</t>
+  </si>
+  <si>
+    <t>0.479+/-0.015</t>
+  </si>
+  <si>
+    <t>0.685+/-0.012</t>
+  </si>
+  <si>
+    <t>0.579+/-0.02</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.798+/-0.004</t>
+  </si>
+  <si>
+    <t>0.695+/-0.013</t>
   </si>
   <si>
     <t>0.703</t>
   </si>
   <si>
-    <t>0.743+/-0.002</t>
-  </si>
-  <si>
-    <t>0.713+/-0.016</t>
-  </si>
-  <si>
-    <t>0.474</t>
-  </si>
-  <si>
-    <t>0.71+/-0.006</t>
-  </si>
-  <si>
-    <t>0.682+/-0.014</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.571+/-0.006</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.834+/-0.002</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.871+/-0.003</t>
-  </si>
-  <si>
-    <t>0.79+/-0.016</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.783+/-0.003</t>
-  </si>
-  <si>
-    <t>0.693+/-0.019</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>7.511+/-0.127</t>
-  </si>
-  <si>
-    <t>0.74+/-0.003</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.764+/-0.005</t>
-  </si>
-  <si>
-    <t>0.753+/-0.017</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.696+/-0.005</t>
-  </si>
-  <si>
-    <t>0.689+/-0.024</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>1.351+/-0.009</t>
-  </si>
-  <si>
-    <t>0.822+/-0.001</t>
-  </si>
-  <si>
-    <t>0.786+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.857+/-0.002</t>
-  </si>
-  <si>
-    <t>0.816+/-0.014</t>
-  </si>
-  <si>
-    <t>0.774+/-0.004</t>
-  </si>
-  <si>
-    <t>0.74+/-0.017</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>5.671+/-0.024</t>
-  </si>
-  <si>
-    <t>0.719+/-0.002</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.737+/-0.004</t>
-  </si>
-  <si>
-    <t>0.698+/-0.017</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.679+/-0.008</t>
-  </si>
-  <si>
-    <t>0.647+/-0.025</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.551+/-0.003</t>
+    <t>1.1+/-0.031</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,19 +1092,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -980,19 +1112,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1000,19 +1132,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1020,19 +1152,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1040,19 +1172,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1060,19 +1192,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1080,19 +1212,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1100,19 +1232,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1120,19 +1252,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,19 +1272,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>59</v>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1190,19 +1382,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1210,19 +1402,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1230,19 +1422,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1250,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1270,19 +1462,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1290,19 +1482,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1310,19 +1502,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1330,19 +1522,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1350,19 +1542,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1370,19 +1562,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,19 +1672,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1440,19 +1692,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,19 +1712,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,19 +1752,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1520,19 +1772,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1540,19 +1792,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1560,19 +1812,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1580,19 +1832,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,19 +1852,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1934,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,19 +1982,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,19 +2002,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,19 +2022,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +2042,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,19 +2062,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +2082,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +2102,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,19 +2122,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +2142,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
